--- a/Symal/27264/res_INF-HSEQ CC0375-ITP-020 Screw Piling Load Testing. REV 4..xlsx
+++ b/Symal/27264/res_INF-HSEQ CC0375-ITP-020 Screw Piling Load Testing. REV 4..xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\William\Desktop\CONQA\_Git\CONQA\Symal\27264\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FBEDC34A-BBBD-44AC-849D-A607FD9660F3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{70B7DEB3-44B6-4906-9927-00AB0FF097E8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8850" yWindow="2280" windowWidth="28965" windowHeight="18720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="9900" yWindow="2115" windowWidth="28965" windowHeight="18720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="res" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="248" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="409" uniqueCount="135">
   <si>
     <t>type</t>
   </si>
@@ -67,57 +67,15 @@
     <t>checklist</t>
   </si>
   <si>
-    <t xml:space="preserve">Ref docs - </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Acceptance Criteria - </t>
-  </si>
-  <si>
     <t>section</t>
   </si>
   <si>
     <t>1.0 Preliminaries</t>
   </si>
   <si>
-    <t xml:space="preserve">Key - </t>
-  </si>
-  <si>
-    <t xml:space="preserve">UGL Key - </t>
-  </si>
-  <si>
     <t>checkpoint</t>
   </si>
   <si>
-    <t xml:space="preserve">1.1 - </t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.4 - </t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.3 - </t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.2 - </t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.1 - </t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.2 - </t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.3 - </t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.1 - </t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.2 - </t>
-  </si>
-  <si>
-    <t xml:space="preserve">SHL Key - </t>
-  </si>
-  <si>
     <t>INF-HSEQ CC0375-ITP-020 Screw Piling Load Testing. REV 4.</t>
   </si>
   <si>
@@ -130,25 +88,343 @@
     <t xml:space="preserve">4.0 Static Load Testing </t>
   </si>
   <si>
-    <t xml:space="preserve">4.1 - </t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.5 - </t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.4 - </t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.3 - </t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.2 - </t>
-  </si>
-  <si>
     <t>5.0 Conformance</t>
   </si>
   <si>
-    <t xml:space="preserve">5.1 - </t>
+    <t>1.1 - Documentation</t>
+  </si>
+  <si>
+    <t>Ref docs - Issued drawings / Site copy drawings</t>
+  </si>
+  <si>
+    <t>Acceptance Criteria - Check that you have the latest site and engineering drawings BEFORE starting each task/set of tasks. UGL to confirm current IFC Drawings &amp; Spec</t>
+  </si>
+  <si>
+    <t>Key - S</t>
+  </si>
+  <si>
+    <t>UGL Key - R</t>
+  </si>
+  <si>
+    <t>1.2 - Determine lot size</t>
+  </si>
+  <si>
+    <t>Acceptance Criteria - Lots to be broken up accordingly and outlined on a lot map</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Remarks / record (e.g. test frequency, reports, certificates, checklist etc) - </t>
+  </si>
+  <si>
+    <t>Lot map</t>
+  </si>
+  <si>
+    <t>bool</t>
+  </si>
+  <si>
+    <t>1.3 - Material Certification</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Acceptance Criteria - All Materials Certificate for all materials that are part of this works to be submitted to the client and approved  </t>
+  </si>
+  <si>
+    <t>Material Certification</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.4 - Geotechnical Engineer </t>
+  </si>
+  <si>
+    <t>Acceptance Criteria - Proposed Geotechnical Engineer holds correct qualifications and Experience to provide Screw Pile design.</t>
+  </si>
+  <si>
+    <t>Bore Hole Log</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.1 - Screw Piles Shop Drawing </t>
+  </si>
+  <si>
+    <t>Ref docs - Spec. 0003 Piling [Cl 3.3.2]</t>
+  </si>
+  <si>
+    <t>Acceptance Criteria - Shop Drawings based on BH-308 to be submitted, reviewed, and approved by UGL.</t>
+  </si>
+  <si>
+    <t>Shop Drawings to include.</t>
+  </si>
+  <si>
+    <t>○ Dimensional Requirement including tolerances if applicable.</t>
+  </si>
+  <si>
+    <t>○ Sections designation and material grade</t>
+  </si>
+  <si>
+    <t>○ All Welds and weld procedure</t>
+  </si>
+  <si>
+    <t>○ Corrosion protection requirements</t>
+  </si>
+  <si>
+    <t>Key - H</t>
+  </si>
+  <si>
+    <t>UGL Key - H</t>
+  </si>
+  <si>
+    <t>SHL Key - H</t>
+  </si>
+  <si>
+    <t>AUTHORITY HOLDPOINT</t>
+  </si>
+  <si>
+    <t>holdpoint</t>
+  </si>
+  <si>
+    <t>2.2 - Manufacturing of Steel Screw.</t>
+  </si>
+  <si>
+    <t>Acceptance Criteria - Fabrications</t>
+  </si>
+  <si>
+    <t>Welding</t>
+  </si>
+  <si>
+    <t>Helices.</t>
+  </si>
+  <si>
+    <t>○ Where CHS is cut using a mechanical saw, cuts to be straight and at an angle as the drawings, ±1%. The height difference does not exceed 5mm. There is to be no excessive gapping.</t>
+  </si>
+  <si>
+    <t>○ All welding to be in accordance with AS/NZA 1554. Welding procedure specification to be submitted, reviewed, and approved by UGL.</t>
+  </si>
+  <si>
+    <t>○ Pitch at the inside of the helix must be equal, (±4% and no greater than 10mm). Gradients of the helices to be constant. Any radial measurements of helices should be perpendicular (±4% and no greater than 10mm).</t>
+  </si>
+  <si>
+    <t>2.3 - Piling Machine</t>
+  </si>
+  <si>
+    <t>Ref docs - Drawings</t>
+  </si>
+  <si>
+    <t>Acceptance Criteria - Details and calibration records of the Piling machine and any other tools that may be required shall be provided for approval by the Superintendent.</t>
+  </si>
+  <si>
+    <t>○ Calibration records for piling rig monitoring instruments to be submitted to Superintendent</t>
+  </si>
+  <si>
+    <t>Key - R</t>
+  </si>
+  <si>
+    <t>SHL Key - W</t>
+  </si>
+  <si>
+    <t>Calibration Records</t>
+  </si>
+  <si>
+    <t>3.1 - Survey Setout</t>
+  </si>
+  <si>
+    <t>Acceptance Criteria - Pile locations shall be set-out at locations shown on the drawings and specifications – 3 test/ centre piles to be located as per the markup.</t>
+  </si>
+  <si>
+    <t>○ Each pile is pegged by the surveyor and identified with a unique pile number.</t>
+  </si>
+  <si>
+    <t>○ Static Load Test Compression: 4 Reaction piles to be marked out as per the dimensions of the I beam that is to be used</t>
+  </si>
+  <si>
+    <t>○ Static Load Test Tension: 2 Reaction piles to be marked out as per the dimensions of the I beam that is to be used</t>
+  </si>
+  <si>
+    <t>Survey Report</t>
+  </si>
+  <si>
+    <t>Test Setout Plan</t>
+  </si>
+  <si>
+    <t>3.2 - Screw Pile Installation</t>
+  </si>
+  <si>
+    <t>Ref docs - Spec. 0003 Piling [Cl 3.4]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Acceptance Criteria - Each screw piles shall be inspected as the works proceeds. </t>
+  </si>
+  <si>
+    <t>Notice: 2 working days prior to excavation of test pile</t>
+  </si>
+  <si>
+    <t>○ Rate of penetration to be monitored, if one helix pitch per revolution, it needs to be recorded and designer notified.</t>
+  </si>
+  <si>
+    <t>○ Screw piles installed as per design and with min driving torque of 48,000NM</t>
+  </si>
+  <si>
+    <t>○ Rate of penetration and torque vs depth to be recorded.</t>
+  </si>
+  <si>
+    <t>○ Each piles finish height is to be checked.</t>
+  </si>
+  <si>
+    <t>○ Testing piles to be 300 mm off the ground level, Reactive Piles to be made to suit ground level.</t>
+  </si>
+  <si>
+    <t>Geotechnical Engineer Sign Off Sheet</t>
+  </si>
+  <si>
+    <t>Pile Log Sheet</t>
+  </si>
+  <si>
+    <t>4.1 - Static Load Testing Set up</t>
+  </si>
+  <si>
+    <t>Acceptance Criteria - Australian piling Experts Static Load test Method Statement for set up of both Compression test &amp; Tension test configuration.</t>
+  </si>
+  <si>
+    <t>○ Place I Beam on the Test/ Reactive piles. Pile Stubs to be facing the same direction as the inner beam.</t>
+  </si>
+  <si>
+    <t>○ Place Hydraulic Jack and the Dial Gauge, allowing the dial gauges to slightly touch the reference beam and securing it into place.</t>
+  </si>
+  <si>
+    <t>○ Circular black casing to be turned until the reading is zero at 12’0 position.</t>
+  </si>
+  <si>
+    <t>Key - W</t>
+  </si>
+  <si>
+    <t>UGL Key - W</t>
+  </si>
+  <si>
+    <t>SHL Key - S</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Photos </t>
+  </si>
+  <si>
+    <t>4.2 - Static Load Test Acceptance Criteria</t>
+  </si>
+  <si>
+    <t>Ref docs - Spec. 0003 Piling [Cl 3.13]</t>
+  </si>
+  <si>
+    <t>Acceptance Criteria - Test piles 1 &amp; 2</t>
+  </si>
+  <si>
+    <t>Test results to conform to the following:</t>
+  </si>
+  <si>
+    <t>– – – – – – – – – – – – – – – –</t>
+  </si>
+  <si>
+    <t>Test Type || Load: Description || Magnitude (kN) || Maximum Deflection (mm) || Symbol</t>
+  </si>
+  <si>
+    <t>Compression || Serviceability (Proof) || 120.0 || 5.0 || Ps</t>
+  </si>
+  <si>
+    <t>Compression || Design Geotechnical Strength (Proof)1 || 180.0 || 10.0 || Pg</t>
+  </si>
+  <si>
+    <t>Compression || Ultimate Geotechnical Strength (Ultimate)2 || 450.0 || N/A || Pu</t>
+  </si>
+  <si>
+    <t>Tension (Uplift) || Serviceability (Proof) || 80.0 || 5.0 || Ps</t>
+  </si>
+  <si>
+    <t>Tension (Uplift) || Design Geotechnical Strength (Proof)1 || 100.0 || 10.0 || Pg</t>
+  </si>
+  <si>
+    <t>Tension (Uplift) || Ultimate Geotechnical Strength (Ultimate)2 || 250.0 || N/A || Pu</t>
+  </si>
+  <si>
+    <t>Static Load Test Reports</t>
+  </si>
+  <si>
+    <t>4.3 - Static Load Conformance</t>
+  </si>
+  <si>
+    <t>Acceptance Criteria - The testing piles to conform with the following.</t>
+  </si>
+  <si>
+    <t>– The loading system shall have a capacity of at least 500kN.</t>
+  </si>
+  <si>
+    <t>– The overall loading and measuring system shall be capable of accommodating a pile movement of at least 25mm.</t>
+  </si>
+  <si>
+    <t>– Movements shall be measured with a system capable of delivery an accuracy of 0.1mm</t>
+  </si>
+  <si>
+    <t xml:space="preserve">– Test piles to have a min spacing of 2.5m </t>
+  </si>
+  <si>
+    <t>– Test piles top be min 5.0m from location of permanent piles.</t>
+  </si>
+  <si>
+    <t>– After UGL review of the Test report, the test piles to be removed and kept on site to facilitate inspection by UGL to determine their suitability for reuse.</t>
+  </si>
+  <si>
+    <t>4.4 - Test Method &amp; Loading Sequence - Compression</t>
+  </si>
+  <si>
+    <t>Ref docs - AS2159-2009 8.4</t>
+  </si>
+  <si>
+    <t>Acceptance Criteria - Schedule of Lod Test Requirements from AS2159 Figure A1 Completed prior to commencement of loading.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">○ Loading &amp; recordings to be carried out in accordance with AS2159 Table A1 (Attached as rear of ITP for reference) </t>
+  </si>
+  <si>
+    <t>UGL Key - S</t>
+  </si>
+  <si>
+    <t>Load vs Displacement Records</t>
+  </si>
+  <si>
+    <t>Test Method &amp; Loading Sequence - Tension</t>
+  </si>
+  <si>
+    <t>○ Loading &amp; recordings to be carried out in accordance with AS2159 Table A1 (Attached as rear of ITP for reference)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.5 - Reporting </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Acceptance Criteria - Test reports forwarded to UGL/Snowy for Review/Acceptance in accordance with AS2159 A4 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Key - H </t>
+  </si>
+  <si>
+    <t xml:space="preserve">UGL Key - H </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SHL Key - H </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Test Reports </t>
+  </si>
+  <si>
+    <t>5.1 - Survey</t>
+  </si>
+  <si>
+    <t>Ref docs - Spec. 0003 Piling [Cl 3.10]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Acceptance Criteria - All piles shall be constructed within the tolerance specified below: </t>
+  </si>
+  <si>
+    <t>○ The centreline at the top of the piles shall be within 75mm of the specified position.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">○ The inclination of the pile shaft shall be within ± 4% of the nominated inclination. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">○ The tolerance on the level of the top of the piles shall be ± 20mm. </t>
+  </si>
+  <si>
+    <t>As-Built Survey Conformance</t>
   </si>
 </sst>
 </file>
@@ -291,7 +567,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="37">
+  <fills count="38">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -491,6 +767,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -655,7 +937,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -670,6 +952,12 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="36" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="37" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
@@ -1027,10 +1315,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I112"/>
+  <dimension ref="A1:I192"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView tabSelected="1" topLeftCell="A163" workbookViewId="0">
+      <selection activeCell="B177" sqref="B177"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1075,7 +1363,7 @@
         <v>14</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>32</v>
+        <v>18</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>8</v>
@@ -1087,24 +1375,24 @@
         <v>9</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>32</v>
+        <v>18</v>
       </c>
       <c r="I2" s="2"/>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
@@ -1112,15 +1400,15 @@
         <v>13</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>15</v>
+        <v>24</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B6" s="1" t="s">
-        <v>16</v>
+      <c r="B6" s="6" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
@@ -1139,7 +1427,7 @@
         <v>13</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
@@ -1147,31 +1435,34 @@
         <v>13</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A10" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>31</v>
+      <c r="A10" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A11" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="B11" s="4" t="s">
-        <v>25</v>
+      <c r="A11" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A12" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>15</v>
+      <c r="A12" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C12" s="5" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
@@ -1179,18 +1470,15 @@
         <v>13</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>16</v>
+        <v>26</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A14" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="B14" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="C14" s="5" t="s">
-        <v>12</v>
+      <c r="A14" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
@@ -1198,39 +1486,42 @@
         <v>13</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
-        <v>13</v>
+        <v>32</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>20</v>
+        <v>31</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A17" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>31</v>
+      <c r="A17" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A18" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="B18" s="4" t="s">
-        <v>24</v>
+      <c r="A18" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A19" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B19" s="1" t="s">
-        <v>15</v>
+      <c r="A19" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B19" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C19" s="5" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
@@ -1238,18 +1529,15 @@
         <v>13</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>16</v>
+        <v>26</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A21" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="B21" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="C21" s="5" t="s">
-        <v>12</v>
+      <c r="A21" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
@@ -1257,39 +1545,42 @@
         <v>13</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
-        <v>13</v>
+        <v>32</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>20</v>
+        <v>35</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A24" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B24" s="1" t="s">
-        <v>31</v>
+      <c r="A24" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B24" s="4" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A25" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="B25" s="4" t="s">
-        <v>23</v>
+      <c r="A25" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A26" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B26" s="1" t="s">
-        <v>15</v>
+      <c r="A26" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B26" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C26" s="5" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
@@ -1297,18 +1588,15 @@
         <v>13</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>16</v>
+        <v>26</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A28" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="B28" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="C28" s="5" t="s">
-        <v>12</v>
+      <c r="A28" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
@@ -1316,39 +1604,39 @@
         <v>13</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
-        <v>13</v>
+        <v>32</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>20</v>
+        <v>38</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A31" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B31" s="1" t="s">
-        <v>31</v>
+      <c r="A31" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B31" s="3" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A32" s="3" t="s">
+      <c r="A32" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="B32" s="3" t="s">
-        <v>33</v>
+      <c r="B32" s="4" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A33" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="B33" s="4" t="s">
-        <v>26</v>
+      <c r="A33" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B33" s="6" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
@@ -1356,7 +1644,7 @@
         <v>13</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>15</v>
+        <v>41</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
@@ -1364,18 +1652,15 @@
         <v>13</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>16</v>
+        <v>42</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A36" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="B36" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="C36" s="5" t="s">
-        <v>12</v>
+      <c r="A36" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
@@ -1383,7 +1668,7 @@
         <v>13</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>19</v>
+        <v>44</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
@@ -1391,7 +1676,7 @@
         <v>13</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>20</v>
+        <v>45</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.25">
@@ -1399,15 +1684,18 @@
         <v>13</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>31</v>
+        <v>46</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A40" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="B40" s="4" t="s">
-        <v>27</v>
+      <c r="A40" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B40" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C40" s="5" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.25">
@@ -1415,7 +1703,7 @@
         <v>13</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>15</v>
+        <v>47</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.25">
@@ -1423,18 +1711,15 @@
         <v>13</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>16</v>
+        <v>48</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A43" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="B43" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="C43" s="5" t="s">
-        <v>12</v>
+      <c r="A43" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B43" s="1" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.25">
@@ -1442,31 +1727,31 @@
         <v>13</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
-        <v>13</v>
+        <v>32</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>20</v>
+        <v>38</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A46" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B46" s="1" t="s">
-        <v>31</v>
+      <c r="A46" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="B46" s="7" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A47" s="4" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="B47" s="4" t="s">
-        <v>28</v>
+        <v>52</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.25">
@@ -1474,7 +1759,7 @@
         <v>13</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>15</v>
+        <v>40</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.25">
@@ -1482,18 +1767,15 @@
         <v>13</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>16</v>
+        <v>53</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A50" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="B50" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="C50" s="5" t="s">
-        <v>12</v>
+      <c r="A50" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B50" s="1" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.25">
@@ -1501,7 +1783,7 @@
         <v>13</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>19</v>
+        <v>54</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.25">
@@ -1509,7 +1791,7 @@
         <v>13</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>20</v>
+        <v>57</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.25">
@@ -1517,23 +1799,26 @@
         <v>13</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>31</v>
+        <v>55</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A54" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="B54" s="3" t="s">
-        <v>34</v>
+      <c r="A54" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B54" s="1" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A55" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="B55" s="4" t="s">
-        <v>29</v>
+      <c r="A55" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B55" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C55" s="5" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.25">
@@ -1541,7 +1826,7 @@
         <v>13</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>15</v>
+        <v>47</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.25">
@@ -1549,18 +1834,15 @@
         <v>13</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>16</v>
+        <v>48</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A58" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="B58" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="C58" s="5" t="s">
-        <v>12</v>
+      <c r="A58" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B58" s="1" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.25">
@@ -1568,31 +1850,31 @@
         <v>13</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A60" s="1" t="s">
-        <v>13</v>
+        <v>32</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>20</v>
+        <v>35</v>
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A61" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B61" s="1" t="s">
-        <v>31</v>
+      <c r="A61" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="B61" s="7" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A62" s="4" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="B62" s="4" t="s">
-        <v>30</v>
+        <v>59</v>
       </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.25">
@@ -1600,7 +1882,7 @@
         <v>13</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>15</v>
+        <v>60</v>
       </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.25">
@@ -1608,26 +1890,26 @@
         <v>13</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>16</v>
+        <v>61</v>
       </c>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A65" s="5" t="s">
+      <c r="A65" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B65" s="1" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A66" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="B65" s="5" t="s">
+      <c r="B66" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="C65" s="5" t="s">
+      <c r="C66" s="5" t="s">
         <v>12</v>
-      </c>
-    </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A66" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B66" s="1" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.25">
@@ -1635,7 +1917,7 @@
         <v>13</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>20</v>
+        <v>63</v>
       </c>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.25">
@@ -1643,50 +1925,47 @@
         <v>13</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>31</v>
+        <v>48</v>
       </c>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A69" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="B69" s="3" t="s">
-        <v>35</v>
+      <c r="A69" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B69" s="1" t="s">
+        <v>64</v>
       </c>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A70" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="B70" s="4" t="s">
-        <v>36</v>
+      <c r="A70" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B70" s="1" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A71" s="1" t="s">
-        <v>13</v>
+        <v>32</v>
       </c>
       <c r="B71" s="1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A72" s="3" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A72" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B72" s="1" t="s">
-        <v>16</v>
+      <c r="B72" s="3" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A73" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="B73" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="C73" s="5" t="s">
-        <v>12</v>
+      <c r="A73" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B73" s="4" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.25">
@@ -1694,7 +1973,7 @@
         <v>13</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>19</v>
+        <v>67</v>
       </c>
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.25">
@@ -1702,7 +1981,7 @@
         <v>13</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>20</v>
+        <v>68</v>
       </c>
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.25">
@@ -1710,23 +1989,26 @@
         <v>13</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>31</v>
+        <v>69</v>
       </c>
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A77" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="B77" s="4" t="s">
-        <v>40</v>
+      <c r="A77" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B77" s="1" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A78" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B78" s="1" t="s">
-        <v>15</v>
+      <c r="A78" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B78" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C78" s="5" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.25">
@@ -1734,18 +2016,15 @@
         <v>13</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>16</v>
+        <v>47</v>
       </c>
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A80" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="B80" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="C80" s="5" t="s">
-        <v>12</v>
+      <c r="A80" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B80" s="1" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.25">
@@ -1753,7 +2032,7 @@
         <v>13</v>
       </c>
       <c r="B81" s="1" t="s">
-        <v>19</v>
+        <v>49</v>
       </c>
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.25">
@@ -1761,50 +2040,47 @@
         <v>13</v>
       </c>
       <c r="B82" s="1" t="s">
-        <v>20</v>
+        <v>30</v>
       </c>
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A83" s="1" t="s">
-        <v>13</v>
+        <v>32</v>
       </c>
       <c r="B83" s="1" t="s">
-        <v>31</v>
+        <v>71</v>
       </c>
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A84" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="B84" s="4" t="s">
-        <v>39</v>
+      <c r="A84" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B84" s="1" t="s">
+        <v>72</v>
       </c>
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A85" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B85" s="1" t="s">
-        <v>15</v>
+      <c r="A85" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="B85" s="7" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A86" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B86" s="1" t="s">
-        <v>16</v>
+      <c r="A86" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B86" s="4" t="s">
+        <v>73</v>
       </c>
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A87" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="B87" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="C87" s="5" t="s">
-        <v>12</v>
+      <c r="A87" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B87" s="6" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.25">
@@ -1812,7 +2088,7 @@
         <v>13</v>
       </c>
       <c r="B88" s="1" t="s">
-        <v>19</v>
+        <v>75</v>
       </c>
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.25">
@@ -1820,7 +2096,7 @@
         <v>13</v>
       </c>
       <c r="B89" s="1" t="s">
-        <v>20</v>
+        <v>77</v>
       </c>
     </row>
     <row r="90" spans="1:3" x14ac:dyDescent="0.25">
@@ -1828,15 +2104,15 @@
         <v>13</v>
       </c>
       <c r="B90" s="1" t="s">
-        <v>31</v>
+        <v>78</v>
       </c>
     </row>
     <row r="91" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A91" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="B91" s="4" t="s">
-        <v>38</v>
+      <c r="A91" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B91" s="1" t="s">
+        <v>79</v>
       </c>
     </row>
     <row r="92" spans="1:3" x14ac:dyDescent="0.25">
@@ -1844,7 +2120,7 @@
         <v>13</v>
       </c>
       <c r="B92" s="1" t="s">
-        <v>15</v>
+        <v>80</v>
       </c>
     </row>
     <row r="93" spans="1:3" x14ac:dyDescent="0.25">
@@ -1852,26 +2128,26 @@
         <v>13</v>
       </c>
       <c r="B93" s="1" t="s">
-        <v>16</v>
+        <v>81</v>
       </c>
     </row>
     <row r="94" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A94" s="5" t="s">
+      <c r="A94" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B94" s="1" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A95" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="B94" s="5" t="s">
+      <c r="B95" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="C94" s="5" t="s">
+      <c r="C95" s="5" t="s">
         <v>12</v>
-      </c>
-    </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A95" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B95" s="1" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="96" spans="1:3" x14ac:dyDescent="0.25">
@@ -1879,7 +2155,7 @@
         <v>13</v>
       </c>
       <c r="B96" s="1" t="s">
-        <v>20</v>
+        <v>47</v>
       </c>
     </row>
     <row r="97" spans="1:3" x14ac:dyDescent="0.25">
@@ -1887,15 +2163,15 @@
         <v>13</v>
       </c>
       <c r="B97" s="1" t="s">
-        <v>31</v>
+        <v>48</v>
       </c>
     </row>
     <row r="98" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A98" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="B98" s="4" t="s">
-        <v>37</v>
+      <c r="A98" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B98" s="1" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="99" spans="1:3" x14ac:dyDescent="0.25">
@@ -1903,66 +2179,63 @@
         <v>13</v>
       </c>
       <c r="B99" s="1" t="s">
-        <v>15</v>
+        <v>30</v>
       </c>
     </row>
     <row r="100" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A100" s="1" t="s">
-        <v>13</v>
+        <v>32</v>
       </c>
       <c r="B100" s="1" t="s">
-        <v>16</v>
+        <v>82</v>
       </c>
     </row>
     <row r="101" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A101" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="B101" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="C101" s="5" t="s">
-        <v>12</v>
+      <c r="A101" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B101" s="1" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="102" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A102" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B102" s="1" t="s">
-        <v>19</v>
+      <c r="A102" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="B102" s="7" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="103" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A103" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B103" s="1" t="s">
-        <v>20</v>
+      <c r="A103" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B103" s="3" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="104" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A104" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B104" s="1" t="s">
-        <v>31</v>
+      <c r="A104" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B104" s="4" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="105" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A105" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="B105" s="3" t="s">
-        <v>41</v>
+      <c r="A105" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B105" s="1" t="s">
+        <v>85</v>
       </c>
     </row>
     <row r="106" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A106" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="B106" s="4" t="s">
-        <v>42</v>
+      <c r="A106" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B106" s="1" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="107" spans="1:3" x14ac:dyDescent="0.25">
@@ -1970,7 +2243,7 @@
         <v>13</v>
       </c>
       <c r="B107" s="1" t="s">
-        <v>15</v>
+        <v>87</v>
       </c>
     </row>
     <row r="108" spans="1:3" x14ac:dyDescent="0.25">
@@ -1978,7 +2251,7 @@
         <v>13</v>
       </c>
       <c r="B108" s="1" t="s">
-        <v>16</v>
+        <v>88</v>
       </c>
     </row>
     <row r="109" spans="1:3" x14ac:dyDescent="0.25">
@@ -1997,7 +2270,7 @@
         <v>13</v>
       </c>
       <c r="B110" s="1" t="s">
-        <v>19</v>
+        <v>89</v>
       </c>
     </row>
     <row r="111" spans="1:3" x14ac:dyDescent="0.25">
@@ -2005,7 +2278,7 @@
         <v>13</v>
       </c>
       <c r="B111" s="1" t="s">
-        <v>20</v>
+        <v>90</v>
       </c>
     </row>
     <row r="112" spans="1:3" x14ac:dyDescent="0.25">
@@ -2013,7 +2286,665 @@
         <v>13</v>
       </c>
       <c r="B112" s="1" t="s">
-        <v>31</v>
+        <v>91</v>
+      </c>
+    </row>
+    <row r="113" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A113" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B113" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="114" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A114" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B114" s="1" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="115" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A115" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B115" s="4" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="116" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A116" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B116" s="1" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="117" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A117" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B117" s="6" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="118" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A118" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B118" s="6" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="119" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A119" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B119" s="1" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="120" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A120" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B120" s="6" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="121" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A121" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B121" s="1" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="122" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A122" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B122" s="6" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="123" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A123" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B123" s="6" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="124" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A124" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B124" s="6" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="125" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A125" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B125" s="6" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="126" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A126" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B126" s="6" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="127" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A127" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B127" s="6" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="128" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A128" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B128" s="1" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="129" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A129" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B129" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C129" s="5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="130" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A130" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B130" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="131" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A131" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B131" s="1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="132" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A132" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B132" s="1" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="133" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A133" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B133" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="134" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A134" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B134" s="1" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="135" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A135" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="B135" s="7" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="136" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A136" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B136" s="4" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="137" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A137" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B137" s="6" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="138" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A138" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B138" s="1" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="139" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A139" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B139" s="1" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="140" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A140" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B140" s="1" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="141" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A141" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B141" s="1" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="142" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A142" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B142" s="1" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="143" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A143" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B143" s="1" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="144" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A144" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B144" s="1" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="145" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A145" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B145" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C145" s="5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="146" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A146" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B146" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="147" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A147" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B147" s="1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="148" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A148" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B148" s="1" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="149" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A149" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="B149" s="7" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="150" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A150" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B150" s="4" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="151" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A151" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B151" s="1" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="152" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A152" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B152" s="1" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="153" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A153" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B153" s="1" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="154" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A154" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B154" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C154" s="5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="155" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A155" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B155" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="156" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A156" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B156" s="1" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="157" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A157" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B157" s="1" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="158" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A158" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B158" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="159" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A159" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B159" s="1" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="160" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A160" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B160" s="4" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="161" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A161" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B161" s="1" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="162" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A162" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B162" s="1" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="163" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A163" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B163" s="1" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="164" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A164" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B164" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C164" s="5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="165" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A165" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B165" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="166" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A166" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B166" s="1" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="167" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A167" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B167" s="1" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="168" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A168" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B168" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="169" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A169" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B169" s="1" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="170" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A170" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B170" s="4" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="171" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A171" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B171" s="1" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="172" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A172" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B172" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C172" s="5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="173" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A173" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B173" s="1" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="174" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A174" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B174" s="1" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="175" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A175" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B175" s="1" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="176" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A176" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B176" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="177" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A177" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B177" s="1" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="178" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A178" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="B178" s="7" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="179" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A179" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B179" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="180" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A180" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B180" s="4" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="181" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A181" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B181" s="1" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="182" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A182" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B182" s="6" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="183" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A183" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B183" s="6" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="184" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A184" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B184" s="6" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="185" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A185" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B185" s="6" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="186" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A186" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B186" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C186" s="5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="187" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A187" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B187" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="188" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A188" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B188" s="1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="189" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A189" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B189" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="190" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A190" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B190" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="191" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A191" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B191" s="1" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="192" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A192" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="B192" s="7" t="s">
+        <v>50</v>
       </c>
     </row>
   </sheetData>
